--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_437__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_437__Reeval_Sobol_Modell_1.1.xlsx
@@ -6130,22 +6130,22 @@
                   <c:v>0.2570529282093048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.57781219482422</c:v>
+                  <c:v>42.57780456542969</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.2570529282093048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.9244499206543</c:v>
+                  <c:v>45.92445755004883</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72.50690460205078</c:v>
+                  <c:v>72.50691223144531</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>47.54997253417969</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.228607177734375</c:v>
+                  <c:v>6.228607654571533</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.2570529282093048</c:v>
@@ -6157,16 +6157,16 @@
                   <c:v>15.85751914978027</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.43727111816406</c:v>
+                  <c:v>40.43723678588867</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.31909561157227</c:v>
+                  <c:v>49.319091796875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>62.64849472045898</c:v>
+                  <c:v>62.64849090576172</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>58.49160385131836</c:v>
+                  <c:v>58.49162292480469</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.2570529282093048</c:v>
@@ -6181,7 +6181,7 @@
                   <c:v>12.47970390319824</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44.22728729248047</c:v>
+                  <c:v>44.227294921875</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.2570529282093048</c:v>
@@ -6202,13 +6202,13 @@
                   <c:v>0.2570529282093048</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>71.45553588867188</c:v>
+                  <c:v>71.45554351806641</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>33.72307586669922</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55.64002227783203</c:v>
+                  <c:v>55.64002990722656</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.2570529282093048</c:v>
@@ -6220,7 +6220,7 @@
                   <c:v>0.2570529282093048</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4765602946281433</c:v>
+                  <c:v>0.4765603840351105</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.2570529282093048</c:v>
@@ -6232,25 +6232,25 @@
                   <c:v>0.2570529282093048</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>54.3563232421875</c:v>
+                  <c:v>54.35632705688477</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.73838043212891</c:v>
+                  <c:v>39.7383918762207</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13.82993316650391</c:v>
+                  <c:v>13.8299388885498</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.2570529282093048</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>16.15102958679199</c:v>
+                  <c:v>16.15102577209473</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>53.50943374633789</c:v>
+                  <c:v>53.50942993164062</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43.52519226074219</c:v>
+                  <c:v>43.52518081665039</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.2570529282093048</c:v>
@@ -6259,7 +6259,7 @@
                   <c:v>58.68412780761719</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>46.9437255859375</c:v>
+                  <c:v>46.94372177124023</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.2570529282093048</c:v>
@@ -6277,13 +6277,13 @@
                   <c:v>0.2570529282093048</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.921407222747803</c:v>
+                  <c:v>7.921408653259277</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>55.84653854370117</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>62.08307647705078</c:v>
+                  <c:v>62.08305740356445</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0.2570529282093048</c:v>
@@ -6295,19 +6295,19 @@
                   <c:v>43.62008285522461</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>50.04729843139648</c:v>
+                  <c:v>50.04728317260742</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>63.19736862182617</c:v>
+                  <c:v>63.19736480712891</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>51.62489318847656</c:v>
+                  <c:v>51.62490844726562</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0.2570529282093048</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>53.28749084472656</c:v>
+                  <c:v>53.2874870300293</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45.51229476928711</c:v>
@@ -6334,10 +6334,10 @@
                   <c:v>0.2570529282093048</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>36.36069488525391</c:v>
+                  <c:v>36.3607063293457</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>46.57919692993164</c:v>
+                  <c:v>46.57919311523438</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>0.2570529282093048</c:v>
@@ -6346,19 +6346,19 @@
                   <c:v>0.2570529282093048</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>43.38980865478516</c:v>
+                  <c:v>43.38980484008789</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>0.2570529282093048</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>46.90168762207031</c:v>
+                  <c:v>46.90166854858398</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>21.80300903320312</c:v>
+                  <c:v>21.80300712585449</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.871103763580322</c:v>
+                  <c:v>7.871105670928955</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>13.61589336395264</c:v>
@@ -6367,16 +6367,16 @@
                   <c:v>0.2570529282093048</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.6460332870483398</c:v>
+                  <c:v>0.6460344791412354</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>40.45859909057617</c:v>
+                  <c:v>40.45862579345703</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>41.83876419067383</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>27.63643836975098</c:v>
+                  <c:v>27.63643264770508</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0.2570529282093048</c:v>
@@ -6394,13 +6394,13 @@
                   <c:v>55.5270881652832</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>59.08303833007812</c:v>
+                  <c:v>59.08302688598633</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>27.62871360778809</c:v>
+                  <c:v>27.62871742248535</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.145465850830078</c:v>
+                  <c:v>7.145464897155762</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>0.2570529282093048</c:v>
@@ -6412,13 +6412,13 @@
                   <c:v>48.33722305297852</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>33.09082412719727</c:v>
+                  <c:v>33.09081649780273</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0.2570529282093048</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>46.89426040649414</c:v>
+                  <c:v>46.89426803588867</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>35.92758941650391</c:v>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>42.57781219482422</v>
+        <v>42.57780456542969</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>45.9244499206543</v>
+        <v>45.92445755004883</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>40.0699</v>
       </c>
       <c r="F9">
-        <v>72.50690460205078</v>
+        <v>72.50691223144531</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>6.228607177734375</v>
+        <v>6.228607654571533</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>45.6578</v>
       </c>
       <c r="F15">
-        <v>40.43727111816406</v>
+        <v>40.43723678588867</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>26.5051</v>
       </c>
       <c r="F16">
-        <v>49.31909561157227</v>
+        <v>49.319091796875</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>51.572</v>
       </c>
       <c r="F17">
-        <v>62.64849472045898</v>
+        <v>62.64849090576172</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>51.4673</v>
       </c>
       <c r="F18">
-        <v>58.49160385131836</v>
+        <v>58.49162292480469</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>50.398</v>
       </c>
       <c r="F23">
-        <v>44.22728729248047</v>
+        <v>44.227294921875</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>51.3308</v>
       </c>
       <c r="F30">
-        <v>71.45553588867188</v>
+        <v>71.45554351806641</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>49.7115</v>
       </c>
       <c r="F32">
-        <v>55.64002227783203</v>
+        <v>55.64002990722656</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.4765602946281433</v>
+        <v>0.4765603840351105</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>50.7435</v>
       </c>
       <c r="F40">
-        <v>54.3563232421875</v>
+        <v>54.35632705688477</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>45.4106</v>
       </c>
       <c r="F41">
-        <v>39.73838043212891</v>
+        <v>39.7383918762207</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>13.82993316650391</v>
+        <v>13.8299388885498</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>16.15102958679199</v>
+        <v>16.15102577209473</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>61.4498</v>
       </c>
       <c r="F45">
-        <v>53.50943374633789</v>
+        <v>53.50942993164062</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>49.825</v>
       </c>
       <c r="F46">
-        <v>43.52519226074219</v>
+        <v>43.52518081665039</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>32.9114</v>
       </c>
       <c r="F49">
-        <v>46.9437255859375</v>
+        <v>46.94372177124023</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>39.3649</v>
       </c>
       <c r="F55">
-        <v>7.921407222747803</v>
+        <v>7.921408653259277</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>48.2681</v>
       </c>
       <c r="F57">
-        <v>62.08307647705078</v>
+        <v>62.08305740356445</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>35.7539</v>
       </c>
       <c r="F61">
-        <v>50.04729843139648</v>
+        <v>50.04728317260742</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>63.19736862182617</v>
+        <v>63.19736480712891</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>49.8526</v>
       </c>
       <c r="F63">
-        <v>51.62489318847656</v>
+        <v>51.62490844726562</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>51.173</v>
       </c>
       <c r="F65">
-        <v>53.28749084472656</v>
+        <v>53.2874870300293</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>47.053</v>
       </c>
       <c r="F74">
-        <v>36.36069488525391</v>
+        <v>36.3607063293457</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>46.57919692993164</v>
+        <v>46.57919311523438</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>43.5154</v>
       </c>
       <c r="F78">
-        <v>43.38980865478516</v>
+        <v>43.38980484008789</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>45.928</v>
       </c>
       <c r="F80">
-        <v>46.90168762207031</v>
+        <v>46.90166854858398</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>21.80300903320312</v>
+        <v>21.80300712585449</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>40.8214</v>
       </c>
       <c r="F82">
-        <v>7.871103763580322</v>
+        <v>7.871105670928955</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.6460332870483398</v>
+        <v>0.6460344791412354</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>45.8522</v>
       </c>
       <c r="F86">
-        <v>40.45859909057617</v>
+        <v>40.45862579345703</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>47.2348</v>
       </c>
       <c r="F88">
-        <v>27.63643836975098</v>
+        <v>27.63643264770508</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>51.117</v>
       </c>
       <c r="F94">
-        <v>59.08303833007812</v>
+        <v>59.08302688598633</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>43.387</v>
       </c>
       <c r="F95">
-        <v>27.62871360778809</v>
+        <v>27.62871742248535</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>7.145465850830078</v>
+        <v>7.145464897155762</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>46.0374</v>
       </c>
       <c r="F100">
-        <v>33.09082412719727</v>
+        <v>33.09081649780273</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>44.8161</v>
       </c>
       <c r="F102">
-        <v>46.89426040649414</v>
+        <v>46.89426803588867</v>
       </c>
     </row>
     <row r="103" spans="1:6">
